--- a/data/filtered_output.xlsx
+++ b/data/filtered_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,36 +524,40 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chi từ nguồn thu giá dịch vụ giáo dục cân đối vào chi thường xuyên (2)</t>
+          <t>Tiền điện, nước các phòng học</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>662</v>
+        <v>824.4</v>
       </c>
       <c r="D3" t="n">
-        <v>662</v>
+        <v>824.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chi tiết theo phụ biểu (Ổn định)</t>
+          <t>0,6 triệu đồng/ phòng/ năm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/2/6/2/3/</t>
+          <t>/2/6/4/1/</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -569,33 +573,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tiền điện, nước các phòng học</t>
+          <t>Tiền điện, nước các phòng ở bán trú</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>824.4</v>
+        <v>586</v>
       </c>
       <c r="D4" t="n">
-        <v>824.4</v>
+        <v>586</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,6 triệu đồng/ phòng/ năm</t>
+          <t>1 triệu đồng/ phòng/ năm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/2/6/4/1/</t>
+          <t>/2/6/4/2/</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -611,33 +615,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tiền điện, nước các phòng ở bán trú</t>
+          <t>Kinh phí hỗ trợ duy trì, cập nhật, nâng cấp các phần mềm: Quản lý ngân sách, quản lý tài sản, lương, kế toán, quản lý trường học</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>586</v>
+        <v>3480</v>
       </c>
       <c r="D5" t="n">
-        <v>586</v>
+        <v>3480</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1 triệu đồng/ phòng/ năm</t>
+          <t>Ổn định</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/2/6/4/2/</t>
+          <t>/2/6/4/3/</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -653,14 +657,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ duy trì, cập nhật, nâng cấp các phần mềm: Quản lý ngân sách, quản lý tài sản, lương, kế toán, quản lý trường học</t>
+          <t>Kinh phí hỗ trợ nâng cấp phần mềm kế toán online cho đơn vị trực thuộc và phần mềm kế toán tổng hợp cho đơn vị chủ quản</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3480</v>
+        <v>381</v>
       </c>
       <c r="D6" t="n">
-        <v>3480</v>
+        <v>381</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -669,17 +673,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/2/6/4/3/</t>
+          <t>/2/6/4/4/</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -690,38 +694,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.7.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ nâng cấp phần mềm kế toán online cho đơn vị trực thuộc và phần mềm kế toán tổng hợp cho đơn vị chủ quản</t>
+          <t xml:space="preserve">Chi lương, phụ cấp và các khoản đóng góp (lương ngạch bậc, phụ cấp chức vụ, phụ cấp khu vực, thâm niên vượt khung, thâm niên nghề và các khoản đóng góp theo lương cơ sở 1,49 triệu đồng/tháng) </t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="D7" t="n">
-        <v>381</v>
+        <v>763.7654801799999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ổn định</t>
+          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/2/6/4/4/</t>
+          <t>/2/7/1/</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -732,24 +736,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.6.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sự nghiệp đào tạo và dạy nghề</t>
+          <t>Kinh phí các khoản phụ cấp lương bổ sung có mục tiêu theo biên chế, vị trí việc làm (lương cơ sở 1,49 triệu đồng/tháng)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8247</v>
+        <v>85735</v>
       </c>
       <c r="D8" t="n">
-        <v>9160.055680179999</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>96503.3783398667</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/2/7/</t>
+          <t>/3/6/1/</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -759,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -770,19 +778,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2.7.1</t>
+          <t>1.6.2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chi lương, phụ cấp và các khoản đóng góp (lương ngạch bậc, phụ cấp chức vụ, phụ cấp khu vực, thâm niên vượt khung, thâm niên nghề và các khoản đóng góp theo lương cơ sở 1,49 triệu đồng/tháng) </t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>430</v>
-      </c>
+          <t>Kinh phí thực hiện CCTL theo Nghị định số  24/2023/NĐ-CP ngày 14/5/2023 của Chính phủ (Bệnh viện, TTYT, Trạm y tế)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>763.7654801799999</v>
+        <v>182833.4734040494</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -791,11 +797,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/2/7/1/</t>
+          <t>/3/6/2/</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -812,28 +818,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.6.1</t>
+          <t>1.6.3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kinh phí các khoản phụ cấp lương bổ sung có mục tiêu theo biên chế, vị trí việc làm (lương cơ sở 1,49 triệu đồng/tháng)</t>
+          <t>Kinh phí thực hiện chính sách tinh giản biên chế theo Nghị định số 108/2014/NĐ-CP ngày 20/11/2014 và Nghị định số 113/2018/NĐ-CP của Chính phủ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85735</v>
+        <v>2000</v>
       </c>
       <c r="D10" t="n">
-        <v>96503.3783398667</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
-        </is>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/3/6/1/</t>
+          <t>/3/6/3/</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -843,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -854,26 +856,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.6.2</t>
+          <t>1.6.4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kinh phí thực hiện CCTL theo Nghị định số  24/2023/NĐ-CP ngày 14/5/2023 của Chính phủ (Bệnh viện, TTYT, Trạm y tế)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Kinh phí thực hiện hợp đồng các công việc theo Nghị định số 161/2018/NĐ-CP ngày 29/11/2018 của Chính phủ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1862</v>
+      </c>
       <c r="D11" t="n">
-        <v>182833.4734040494</v>
+        <v>2249.6145984</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
+          <t>Chi tiết theo phụ biểu 02 (Biểu lương)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/3/6/2/</t>
+          <t>/3/6/4/</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -883,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -894,34 +898,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.6.3</t>
+          <t>1.6.5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kinh phí thực hiện chính sách tinh giản biên chế theo Nghị định số 108/2014/NĐ-CP ngày 20/11/2014 và Nghị định số 113/2018/NĐ-CP của Chính phủ</t>
+          <t>Kinh phí tăng biên chế giáo viên theo Nghị quyết 32/NQ-HĐND ngày 18/10/2022 của HĐND tỉnh, Quyết định số 2495/QĐ-UBND ngày 26/10/2022</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2000</v>
+        <v>1059</v>
       </c>
       <c r="D12" t="n">
-        <v>2000</v>
+        <v>1235.637583892617</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/3/6/3/</t>
+          <t>/3/6/5/</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -932,38 +936,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.6.4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kinh phí thực hiện hợp đồng các công việc theo Nghị định số 161/2018/NĐ-CP ngày 29/11/2018 của Chính phủ</t>
+          <t>Kinh phí tiền lương, phụ cấp khu vực, các khoản đóng góp</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1862</v>
+        <v>849</v>
       </c>
       <c r="D13" t="n">
-        <v>2249.6145984</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Chi tiết theo phụ biểu 02 (Biểu lương)</t>
-        </is>
-      </c>
+        <v>1025.637583892617</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/3/6/4/</t>
+          <t>/3/6/5/1/</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -974,34 +974,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.6.5</t>
+          <t>1.6.6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kinh phí tăng biên chế giáo viên theo Nghị quyết 32/NQ-HĐND ngày 18/10/2022 của HĐND tỉnh, Quyết định số 2495/QĐ-UBND ngày 26/10/2022</t>
+          <t>Kinh phí thực hiện các chế độ, chính sách</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1059</v>
+        <v>50790</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.637583892617</v>
+        <v>61459.229484</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/3/6/5/</t>
+          <t>/3/6/6/</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1017,33 +1017,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kinh phí tiền lương, phụ cấp khu vực, các khoản đóng góp</t>
+          <t>Kinh phí hỗ trợ học sinh bán trú, trường PTDT bán trú theo Nghị định số 116/2016/NĐ-CP ngày 18/7/2016, Quyết định số 132/2016/QĐ-UBND ngày 20/12/2016</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>849</v>
+        <v>16926</v>
       </c>
       <c r="D15" t="n">
-        <v>1025.637583892617</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>19477.08</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phụ biểu chi tiết 24 (BT NĐ116)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/3/6/5/1/</t>
+          <t>/3/6/6/1/</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>071, 072, 073, 074, 075</t>
+          <t>072, 073, 074</t>
         </is>
       </c>
     </row>
@@ -1055,37 +1059,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ học sinh bán trú, trường PTDT bán trú theo Nghị định số 116/2016/NĐ-CP ngày 18/7/2016, Quyết định số 132/2016/QĐ-UBND ngày 20/12/2016</t>
+          <t>Kinh phí hỗ trợ tiền ăn cho học sinh bán trú theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16926</v>
+        <v>307</v>
       </c>
       <c r="D16" t="n">
-        <v>19477.08</v>
+        <v>412.2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 24 (BT NĐ116)</t>
+          <t>Phụ biểu chi tiết 25 (BT NQ29)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/3/6/6/1/</t>
+          <t>/3/6/6/2/</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>072, 073, 074</t>
+          <t>071, 072, 073, 074, 075</t>
         </is>
       </c>
     </row>
@@ -1097,23 +1101,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ tiền ăn cho học sinh bán trú theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
+          <t>Kinh phí hỗ trợ tiền ăn trưa cho trẻ từ 24 tháng đến 36 tháng tuổi theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>307</v>
+        <v>927</v>
       </c>
       <c r="D17" t="n">
-        <v>412.2</v>
+        <v>954.7200000000004</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 25 (BT NQ29)</t>
+          <t>Phụ biểu chi tiết 26 (Trẻ em NQ29)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/3/6/6/2/</t>
+          <t>/3/6/6/3/</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1123,11 +1127,11 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>071, 072, 073, 074, 075</t>
+          <t>071</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1143,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ tiền ăn trưa cho trẻ từ 24 tháng đến 36 tháng tuổi theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
+          <t>Kinh phí hỗ trợ giáo viên quản lý bán trú theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>927</v>
+        <v>748</v>
       </c>
       <c r="D18" t="n">
-        <v>954.7200000000004</v>
+        <v>755.73</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 26 (Trẻ em NQ29)</t>
+          <t>Phụ biểu chi tiết 27 (QLBT NQ29)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/3/6/6/3/</t>
+          <t>/3/6/6/4/</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>071</t>
+          <t>071, 072, 073, 074, 075</t>
         </is>
       </c>
     </row>
@@ -1181,33 +1185,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ giáo viên quản lý bán trú theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
+          <t>Kinh phí hỗ trợ cấp dưỡng nấu ăn cho học sinh bán trú theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>748</v>
+        <v>264</v>
       </c>
       <c r="D19" t="n">
-        <v>755.73</v>
+        <v>307.8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 27 (QLBT NQ29)</t>
+          <t>Phụ biểu chi tiết 28 (CD NQ29)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/3/6/6/4/</t>
+          <t>/3/6/6/5/</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1223,37 +1227,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ cấp dưỡng nấu ăn cho học sinh bán trú theo Nghị quyết số 29/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
+          <t>Kinh phí phát triển giáo dục mầm non theo Nghị định 105/2020/NĐ-CP ngày 08/9/2020 của Chính phủ</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>264</v>
+        <v>6495</v>
       </c>
       <c r="D20" t="n">
-        <v>307.8</v>
+        <v>6419.34</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 28 (CD NQ29)</t>
+          <t>Phụ biểu chi tiết 29+30 (CD NĐ105,  LN NĐ105)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/3/6/6/5/</t>
+          <t>/3/6/6/6/</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>071, 072, 073, 074, 075</t>
+          <t>071</t>
         </is>
       </c>
     </row>
@@ -1265,37 +1269,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kinh phí phát triển giáo dục mầm non theo Nghị định 105/2020/NĐ-CP ngày 08/9/2020 của Chính phủ</t>
+          <t>Kinh phí cấp bù học phí, hỗ trợ chi phí học tập theo Nghị định số 81/2021/NĐ-CP ngày 27/8/2021 của Chính phủ</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6495</v>
+        <v>19730</v>
       </c>
       <c r="D21" t="n">
-        <v>6419.34</v>
+        <v>20193.22</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 29+30 (CD NĐ105,  LN NĐ105)</t>
+          <t>Phụ biểu chi tiết 32+33+44 (CBSV, CB81, CPHT 81)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/3/6/6/6/</t>
+          <t>/3/6/6/7/</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>071</t>
+          <t>071, 072, 073, 074, 075</t>
         </is>
       </c>
     </row>
@@ -1307,33 +1311,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kinh phí cấp bù học phí, hỗ trợ chi phí học tập theo Nghị định số 81/2021/NĐ-CP ngày 27/8/2021 của Chính phủ</t>
+          <t>Kinh phí chế độ học sinh dân tộc rất ít người theo Nghị định số 57/2017/NĐ-CP ngày 09/5/2017 của Chính phủ</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19730</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>20193.22</v>
+        <v>43.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 32+33+44 (CBSV, CB81, CPHT 81)</t>
+          <t>Phụ biểu chi tiết 43 (CP57)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/3/6/6/7/</t>
+          <t>/3/6/6/8/</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1349,37 +1353,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kinh phí chế độ học sinh dân tộc rất ít người theo Nghị định số 57/2017/NĐ-CP ngày 09/5/2017 của Chính phủ</t>
+          <t>Hỗ trợ một lần cho học sinh có hoàn cảnh khó khăn, tinh thần vượt khó trong học tập tham gia kỳ thi tốt nghiệp THPT theo Nghị quyết số 8/2022/NQ-HĐND ngày 15/7/2022 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>43.2</v>
+        <v>5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 43 (CP57)</t>
+          <t>TTGDTX không quá 10 học sinh; 500.000 đồng/ HS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/3/6/6/8/</t>
+          <t>/3/6/6/9/</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>071, 072, 073, 074, 075</t>
+          <t>074, 075</t>
         </is>
       </c>
     </row>
@@ -1391,37 +1395,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hỗ trợ một lần cho học sinh có hoàn cảnh khó khăn, tinh thần vượt khó trong học tập tham gia kỳ thi tốt nghiệp THPT theo Nghị quyết số 8/2022/NQ-HĐND ngày 15/7/2022 của HĐND tỉnh</t>
+          <t>Kinh phí thực hiện chính sách giáo dục đối với người khuyết tật theo Thông tư số 42/2013/TTLT-BGDĐT-BLĐTBXH-BTC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>1724</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>2233.439999999999</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TTGDTX không quá 10 học sinh; 500.000 đồng/ HS</t>
+          <t>Phụ biểu chi tiết 42 ( KT TT42)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/3/6/6/9/</t>
+          <t>/3/6/6/10/</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>074, 075</t>
+          <t>071, 072, 073, 074, 075</t>
         </is>
       </c>
     </row>
@@ -1433,37 +1437,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kinh phí thực hiện chính sách giáo dục đối với người khuyết tật theo Thông tư số 42/2013/TTLT-BGDĐT-BLĐTBXH-BTC</t>
+          <t>Kinh phí chi phổ cập giáo dục mầm non 5 tuổi, xóa mù chữ và chống tái mù chữ, duy trì kết quả phổ cập giáo dục tiểu học, thực hiện  phổ cập giáo dục trung học cơ sở đúng độ tuổi và hỗ trợ phổ cập giáo dục trung học theo Nghị quyết số 28/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1724</v>
+        <v>953</v>
       </c>
       <c r="D25" t="n">
-        <v>2233.439999999999</v>
+        <v>1414.979</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 42 ( KT TT42)</t>
+          <t>Phụ biểu chi tiết 41 (Xóa mù) (320 triệu nguồn CTMT QG)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/3/6/6/10/</t>
+          <t>/3/6/6/11/</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>071, 072, 073, 074, 075</t>
+          <t>071, 072, 073</t>
         </is>
       </c>
     </row>
@@ -1475,33 +1479,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kinh phí chi phổ cập giáo dục mầm non 5 tuổi, xóa mù chữ và chống tái mù chữ, duy trì kết quả phổ cập giáo dục tiểu học, thực hiện  phổ cập giáo dục trung học cơ sở đúng độ tuổi và hỗ trợ phổ cập giáo dục trung học theo Nghị quyết số 28/2020/NQ-HĐND ngày 04/12/2020 của HĐND tỉnh</t>
+          <t>Kinh phí hỗ trợ tiền ăn học sinh bán trú tại các xã khu vực II, khu vực III hoàn thành nông thôn mới theo Nghị quyết số 09/2022/NQ-HĐND ngày 15/7/2022 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>953</v>
+        <v>1238</v>
       </c>
       <c r="D26" t="n">
-        <v>1414.979</v>
+        <v>2673</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 41 (Xóa mù) (320 triệu nguồn CTMT QG)</t>
+          <t>Phụ biểu chi tiết 40 (Ăn theo NQ 09) (Chờ NQ mới thay thế)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/3/6/6/11/</t>
+          <t>/3/6/6/12/</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1517,33 +1521,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ tiền ăn học sinh bán trú tại các xã khu vực II, khu vực III hoàn thành nông thôn mới theo Nghị quyết số 09/2022/NQ-HĐND ngày 15/7/2022 của HĐND tỉnh</t>
+          <t>Kinh phí hỗ trợ tiền ăn cho trẻ mầm non tại các xã khu vực II, khu vực III hoàn thành nông thôn mới theo Nghị quyết số 09/2022/NQ-HĐND ngày 15/7/2022 của HĐND tỉnh</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1238</v>
+        <v>393</v>
       </c>
       <c r="D27" t="n">
-        <v>2673</v>
+        <v>882.72</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 40 (Ăn theo NQ 09) (Chờ NQ mới thay thế)</t>
+          <t xml:space="preserve"> Phụ biểu chi tiết 39 (Ăn 24-36T) Biểu ăn 24-36 (Chờ NQ thay thế)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/3/6/6/12/</t>
+          <t>/3/6/6/13/</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1559,37 +1563,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ tiền ăn cho trẻ mầm non tại các xã khu vực II, khu vực III hoàn thành nông thôn mới theo Nghị quyết số 09/2022/NQ-HĐND ngày 15/7/2022 của HĐND tỉnh</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>393</v>
-      </c>
+          <t>Kinh phí hỗ trợ học phí giáo dục mầm non theo Nghị quyết số 23/2022/NQ-HĐND ngày 07/12/2022 của HĐND tỉnh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>882.72</v>
+        <v>1940.1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phụ biểu chi tiết 39 (Ăn 24-36T) Biểu ăn 24-36 (Chờ NQ thay thế)</t>
+          <t>Phụ biểu chi tiết 37 (NQ 23 Hỗ trợ HP)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/3/6/6/13/</t>
+          <t>/3/6/6/14/</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>071, 072, 073</t>
+          <t>071</t>
         </is>
       </c>
     </row>
@@ -1601,35 +1603,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kinh phí hỗ trợ học phí giáo dục mầm non theo Nghị quyết số 23/2022/NQ-HĐND ngày 07/12/2022 của HĐND tỉnh</t>
+          <t>Kinh phí chi trả chế độ dạy học sinh hòa nhập theo Nghị định số 28/2012/NĐ-CP ngày 10/4/2012 của Chính phủ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>1940.1</v>
+        <v>2874.200484</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 37 (NQ 23 Hỗ trợ HP)</t>
+          <t>Phụ biểu chi tiết 36 (GV dạy khuyến tật)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/3/6/6/14/</t>
+          <t>/3/6/6/15/</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>071</t>
+          <t>071, 072, 073, 074, 075</t>
         </is>
       </c>
     </row>
@@ -1641,31 +1643,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kinh phí chi trả chế độ dạy học sinh hòa nhập theo Nghị định số 28/2012/NĐ-CP ngày 10/4/2012 của Chính phủ</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Hỗ trợ kinh phí tiền công lao động làm nhiệm vụ bảo vệ trong các cơ sở giáo dục công lập</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1400</v>
+      </c>
       <c r="D30" t="n">
-        <v>2874.200484</v>
+        <v>1694.64</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 36 (GV dạy khuyến tật)</t>
+          <t>Phụ biểu chi tiết 38 (Biểu Bảo vệ)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/3/6/6/15/</t>
+          <t>/3/6/7/1/</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1681,33 +1685,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hỗ trợ kinh phí tiền công lao động làm nhiệm vụ bảo vệ trong các cơ sở giáo dục công lập</t>
+          <t>Kinh phí mua sắm thiết bị dạy học tối thiểu các cấp</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1400</v>
+        <v>10766</v>
       </c>
       <c r="D31" t="n">
-        <v>1694.64</v>
+        <v>14130.4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phụ biểu chi tiết 38 (Biểu Bảo vệ)</t>
+          <t>KH 17.663 triệu đồng; NS tỉnh 80%; NS huyện 20%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/3/6/7/1/</t>
+          <t>/3/6/7/2/</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1723,33 +1727,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kinh phí mua sắm thiết bị dạy học tối thiểu các cấp</t>
+          <t>Hỗ trợ kinh phí hợp đồng nhân viên y tế trường học</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10766</v>
+        <v>1755</v>
       </c>
       <c r="D32" t="n">
-        <v>14130.4</v>
+        <v>1833</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KH 17.663 triệu đồng; NS tỉnh 80%; NS huyện 20%</t>
+          <t>47 cán bộ x mức lương tối thiểu vùng</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/3/6/7/2/</t>
+          <t>/3/6/7/3/</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1760,38 +1764,38 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.7.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hỗ trợ kinh phí hợp đồng nhân viên y tế trường học</t>
+          <t>Kinh phí các khoản phụ cấp lương bổ sung có mục tiêu theo biên chế, vị trí việc làm (lương cơ sở 1,49 triệu đồng/tháng)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1755</v>
+        <v>70</v>
       </c>
       <c r="D33" t="n">
-        <v>1833</v>
+        <v>106.9581600000001</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>47 cán bộ x mức lương tối thiểu vùng</t>
+          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/3/6/7/3/</t>
+          <t>/3/7/1/</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1802,24 +1806,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.7.2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sự nghiệp đào tạo và dạy nghề</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>561</v>
-      </c>
+          <t>Kinh phí thực hiện CCTL theo Nghị định số  24/2023/NĐ-CP ngày 14/5/2023 của Chính phủ (Bệnh viện, TTYT, Trạm y tế)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>2944.2396997</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>496.7215397</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/3/7/</t>
+          <t>/3/7/2/</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1829,91 +1835,9 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>071, 072, 073, 074, 075</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1.7.1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Kinh phí các khoản phụ cấp lương bổ sung có mục tiêu theo biên chế, vị trí việc làm (lương cơ sở 1,49 triệu đồng/tháng)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>70</v>
-      </c>
-      <c r="D35" t="n">
-        <v>106.9581600000001</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>/3/7/1/</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>8</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>071, 072, 073, 074, 075</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1.7.2</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Kinh phí thực hiện CCTL theo Nghị định số  24/2023/NĐ-CP ngày 14/5/2023 của Chính phủ (Bệnh viện, TTYT, Trạm y tế)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
-        <v>496.7215397</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Chi tiết theo phụ biểu 01 (Biểu lương)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>/3/7/2/</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>8</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="inlineStr">
         <is>
           <t>071, 072, 073, 074, 075</t>
         </is>
